--- a/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
+++ b/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d037e0306ecfb5d/Desktop/repos_cloned_here_laptop/silver-goggles/Time Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{40B25DE9-E00C-4BC7-AF93-526C168704D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20485909-575E-4654-8795-D2137E334CAA}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{40B25DE9-E00C-4BC7-AF93-526C168704D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E807A155-9C55-4ED7-98FD-1F194640B941}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="-15105" windowWidth="13845" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="-15810" windowWidth="14265" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member One" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Member Five'!$A$1:$E$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Member Four'!$A$1:$E$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Member One'!$A$1:$E$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Member Three'!$A$1:$E$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Member Three'!$A$1:$E$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Member Two'!$A$1:$E$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -214,6 +214,39 @@
   </si>
   <si>
     <t>Week 2 Project – Use case descriptions</t>
+  </si>
+  <si>
+    <t>MidWeek meeting</t>
+  </si>
+  <si>
+    <t>Putting together final turn-in, collecting timesheets, making small adjustments where needed</t>
+  </si>
+  <si>
+    <t>I updated the SRS document with the most imporant attributes of the system and why they are important. I also created a software architercture description document with a summary of the architectural style and why we are using it. I also included the static view, dynamic view, machine state, and sequence diagrams in the document.</t>
+  </si>
+  <si>
+    <t>Researched software architectures and static views.</t>
+  </si>
+  <si>
+    <t>Touch Base meeting with Ronda – selecting the software architecture for the project – Object Oriented</t>
+  </si>
+  <si>
+    <t>Researched Machine State and Sequence diagrams. Completed Sequence Diagram. Completed Machine State Diagram.</t>
+  </si>
+  <si>
+    <t>Status Update Meeting – Cover Assignments, discussed progress, discussed collaboration expectations.</t>
+  </si>
+  <si>
+    <t>Met with Adam in order to start on the static view. Agreed on work breakdown for collaboration. Compiled Word document with relevant information on classes and functions for Adam to reference while creating the diagram.</t>
+  </si>
+  <si>
+    <t>Created dynamic view and uploaded to group file</t>
+  </si>
+  <si>
+    <t>Week 3 project – Check in with team members and work on static view chart</t>
+  </si>
+  <si>
+    <t>Week 3 Project – Static view chart</t>
   </si>
 </sst>
 </file>
@@ -700,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -732,9 +765,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,9 +782,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1157,65 +1184,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1235,28 +1262,28 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21">
         <f>(C9-B9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>45351</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.875</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" ref="D10:D46" si="0">(C10-B10)</f>
         <v>4.166666666666663E-2</v>
       </c>
@@ -1265,16 +1292,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>45352</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
@@ -1283,16 +1310,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>45353</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.9375</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0.98958333333333337</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <f>(C12-B12)</f>
         <v>5.208333333333337E-2</v>
       </c>
@@ -1301,16 +1328,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>45354</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>0.9375</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
@@ -1319,28 +1346,28 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>45355</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>0.8125</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -1349,16 +1376,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>45357</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>0.8125</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
@@ -1367,16 +1394,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>45359</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>0.8125</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>0.875</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
@@ -1385,16 +1412,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>45361</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>0.875</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
@@ -1403,302 +1430,326 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19"/>
+      <c r="A20" s="14">
+        <v>45362</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="11"/>
+      <c r="A21" s="14">
+        <v>45364</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>45367</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="19" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17">
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="19"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="17">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="17">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:12:15</v>
+        <v>0:15:15</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -1730,8 +1781,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1746,65 +1797,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1824,28 +1875,28 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21">
         <f>(C9-B9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>45351</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" ref="D10:D46" si="0">(C10-B10)</f>
         <v>8.3333333333333259E-2</v>
       </c>
@@ -1854,16 +1905,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>45354</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
@@ -1872,48 +1923,48 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>45358</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>0.10416666666666674</v>
       </c>
@@ -1922,16 +1973,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>45359</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>0.8125</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>0.84375</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -1940,16 +1991,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>45360</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>0.625</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
@@ -1958,312 +2009,328 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17">
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19"/>
+      <c r="A20" s="14">
+        <v>45365</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.90625</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="11"/>
+      <c r="A21" s="14">
+        <v>45366</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17">
+      <c r="A22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="19" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17">
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="19"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="17">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="17">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:9:45</v>
+        <v>0:12:39</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -2293,10 +2360,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2311,65 +2378,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -2389,46 +2456,46 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21">
         <f>(C9-B9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>45352</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0.9375</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="20">
-        <v>2</v>
+      <c r="D10" s="16">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>45354</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0.65625</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D11" s="17">
-        <f t="shared" ref="D11:D47" si="0">(C11-B11)</f>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11:D48" si="0">(C11-B11)</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -2436,16 +2503,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>45354</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.875</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
@@ -2454,38 +2521,38 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>45357</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
@@ -2494,16 +2561,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>45358</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
@@ -2512,16 +2579,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>45359</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>0.875</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
@@ -2530,16 +2597,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>45360</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>0.5625</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
@@ -2548,16 +2615,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>45360</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>0.625</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>0.65625</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <f t="shared" ref="D19" si="1">(C19-B19)</f>
         <v>3.125E-2</v>
       </c>
@@ -2566,309 +2633,359 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="A21" s="14">
+        <v>45363</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.71875</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>45364</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>45364</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>45364</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.86597222222222225</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1805555555555625E-2</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>45364</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.89861111111111114</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" ref="D25" si="2">(C25-B25)</f>
+        <v>2.9166666666666674E-2</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17">
+      <c r="A29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="19" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17">
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="19"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="17">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="17">
+      <c r="A46" s="14"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="25" t="s">
+    <row r="47" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="7" t="str">
-        <f>TEXT(SUM(D9:D47), "d:h:mm")</f>
-        <v>2:6:20</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="7" t="str">
+        <f>TEXT(SUM(D9:D48), "d:h:mm")</f>
+        <v>0:11:34</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
@@ -2893,8 +3010,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2909,65 +3026,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -2987,28 +3104,28 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21">
         <f>(C9-B9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>45354</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" ref="D10:D46" si="0">(C10-B10)</f>
         <v>0.125</v>
       </c>
@@ -3017,58 +3134,58 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>45358</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
@@ -3077,16 +3194,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>45361</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>0.5625</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>0.625</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
@@ -3095,322 +3212,338 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17">
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17">
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19"/>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>45364</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="11"/>
+      <c r="A21" s="14">
+        <v>45365</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17">
+      <c r="A22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="19" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17">
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="19"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="17">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="17">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:6:00</v>
+        <v>0:15:00</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -3442,8 +3575,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A9:D9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3458,65 +3591,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -3536,28 +3669,28 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21">
         <f>(C9-B9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>45349</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" ref="D10:D46" si="0">(C10-B10)</f>
         <v>4.166666666666663E-2</v>
       </c>
@@ -3566,16 +3699,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>45350</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -3584,48 +3717,48 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>45357</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
@@ -3634,332 +3767,340 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="17">
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17">
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17">
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19"/>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>45364</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17">
+      <c r="A21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17">
+      <c r="A22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="19" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17">
+      <c r="A27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17">
+      <c r="A28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17">
+      <c r="A35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="19"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="17">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="17">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="17">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="17">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="17">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="17">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="17">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:3:30</v>
+        <v>0:5:30</v>
       </c>
       <c r="E47" s="3"/>
     </row>

--- a/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
+++ b/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d037e0306ecfb5d/Desktop/repos_cloned_here_laptop/silver-goggles/Time Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{40B25DE9-E00C-4BC7-AF93-526C168704D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E807A155-9C55-4ED7-98FD-1F194640B941}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{40B25DE9-E00C-4BC7-AF93-526C168704D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7124503-AB6D-46EC-A9EF-8DB533BFD5E1}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="-15810" windowWidth="14265" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14700" yWindow="-15105" windowWidth="13845" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member One" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1518,12 +1518,18 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="14">
+        <v>45371</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.875</v>
+      </c>
       <c r="D25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -1749,7 +1755,7 @@
       <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:15:15</v>
+        <v>0:16:45</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -3010,7 +3016,7 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
+++ b/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d037e0306ecfb5d/Desktop/repos_cloned_here_laptop/silver-goggles/Time Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{40B25DE9-E00C-4BC7-AF93-526C168704D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7124503-AB6D-46EC-A9EF-8DB533BFD5E1}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="8_{40B25DE9-E00C-4BC7-AF93-526C168704D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{241618D5-D7EC-4744-ADAD-87F5D6F678F4}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="-15105" windowWidth="13845" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14610" yWindow="-15030" windowWidth="18570" windowHeight="13980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member One" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <definedName name="_Toc118041113" localSheetId="2">'Member Three'!$A$1</definedName>
     <definedName name="_Toc118041113" localSheetId="1">'Member Two'!$A$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Member Five'!$A$1:$E$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Member Four'!$A$1:$E$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Member One'!$A$1:$E$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Member Three'!$A$1:$E$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Member Four'!$A$1:$E$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Member One'!$A$1:$E$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Member Three'!$A$1:$E$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Member Two'!$A$1:$E$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -247,6 +247,75 @@
   </si>
   <si>
     <t>Week 3 Project – Static view chart</t>
+  </si>
+  <si>
+    <t>Initial assignmments, breakdown of weeks deliverables</t>
+  </si>
+  <si>
+    <t>First meeting, confirming assignments, further breakdowns and walk throughs about how each item will be done, and making some scripts to attach dummy data</t>
+  </si>
+  <si>
+    <t>confirming customer request, setting up changes to match customer needs</t>
+  </si>
+  <si>
+    <t>Second weeks meeting, going over assignments that are finished and what still needs to be done in order to meet deliverables. Setting up SQL database using setup code and confirming that dummy data will match, adjusting SQL DB to allow for faster searching via the java program</t>
+  </si>
+  <si>
+    <t>Finalizing deliverables for customer</t>
+  </si>
+  <si>
+    <t>Week 5 Project  meeting with Alex and Rhonda</t>
+  </si>
+  <si>
+    <t>Week 5 Project – Java Gui layout</t>
+  </si>
+  <si>
+    <t>Updating static and dynamic view architecture</t>
+  </si>
+  <si>
+    <t>Status Update Meeting – Covered assignments for the week. Assigned tasks. Attained software to be used.</t>
+  </si>
+  <si>
+    <t>Fixing documentation based on client request.</t>
+  </si>
+  <si>
+    <t>Met with Adam to allocate software construction tasks. Created initial forms in project and connected them to GitHub repository.</t>
+  </si>
+  <si>
+    <t>Added additional components to software structure – tabs for each category that could be accessed.</t>
+  </si>
+  <si>
+    <t>Touch Base meeting with Adam to cover progress made on project. Laid out structures of UI and related classes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created UI components for Reports tab, Employees tab, and Maintenance tab. </t>
+  </si>
+  <si>
+    <t>Status Update Meeting – Discussed database structure, updated team lead on progress made on program, discussed requirements and planned implementations.</t>
+  </si>
+  <si>
+    <t>Created empty Employee and Equipment classes, added empty functions in preparation for next week.</t>
+  </si>
+  <si>
+    <t>Made minor adjustments to Report tab GUI, wrote summary report regarding project progress.</t>
+  </si>
+  <si>
+    <t>Updated dynamic view and uploaded to group file</t>
+  </si>
+  <si>
+    <t>Worked on the inventory python code for xslx</t>
+  </si>
+  <si>
+    <t>Group meeting</t>
+  </si>
+  <si>
+    <t>Watched videos to figure out how to install xlsxWriter</t>
+  </si>
+  <si>
+    <t>Watched videos to brush up on python</t>
+  </si>
+  <si>
+    <t>I've created the Software Design Description document, which includes the system overview, system architecture, data dictionary, human interface design, and requirements matrix. I have also created a database schema. Six tables make up the database schema. This includes, Reports, Equipment, EquipmentCheckout, Inventory, MaintenanceActivities, and User Authentication and Access Control. .</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1235,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1353,7 @@
         <v>0.875</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" ref="D10:D46" si="0">(C10-B10)</f>
+        <f t="shared" ref="D10:D47" si="0">(C10-B10)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1495,95 +1564,129 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>45371</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.875</v>
+      </c>
       <c r="D23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11"/>
+        <f t="shared" ref="D23" si="1">(C23-B23)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24" si="2">(C24-B24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>45371</v>
-      </c>
-      <c r="B25" s="13">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>45376</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" ref="D26:D27" si="3">(C26-B26)</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>45378</v>
+      </c>
+      <c r="B27" s="13">
         <v>0.8125</v>
       </c>
-      <c r="C25" s="13">
-        <v>0.875</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+        <f t="shared" si="3"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="18" t="s">
+      <c r="A29" s="14">
+        <v>45382</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.9375</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -1616,26 +1719,26 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="18" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
@@ -1675,7 +1778,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
@@ -1685,7 +1788,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
@@ -1737,32 +1840,42 @@
       </c>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="23" t="s">
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="7" t="str">
-        <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:16:45</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="7" t="str">
+        <f>TEXT(SUM(D9:D47), "d:h:mm")</f>
+        <v>0:22:45</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
@@ -1788,7 +1901,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2073,14 +2186,22 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="14">
+        <v>45373</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D22" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="11"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
@@ -2105,44 +2226,75 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C25" s="13">
+        <v>6.25E-2</v>
+      </c>
       <c r="D25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.875</v>
+      </c>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="14">
+        <v>45381</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -2336,7 +2488,7 @@
       <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:12:39</v>
+        <v>1:1:39</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -2366,10 +2518,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2653,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" ref="D11:D48" si="0">(C11-B11)</f>
+        <f t="shared" ref="D11:D53" si="0">(C11-B11)</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -2733,116 +2885,186 @@
         <v>0.89861111111111114</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" ref="D25" si="2">(C25-B25)</f>
+        <f t="shared" ref="D25:D27" si="2">(C25-B25)</f>
         <v>2.9166666666666674E-2</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="18" t="s">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>45371</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="2"/>
+        <v>5.1388888888888817E-2</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>45372</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="2"/>
+        <v>3.8194444444444531E-2</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>45379</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.89375000000000004</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.9145833333333333</v>
+      </c>
       <c r="D29" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>45379</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.95347222222222228</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.9770833333333333</v>
+      </c>
       <c r="D30" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+        <v>2.3611111111111027E-2</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>5.1388888888888817E-2</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.7895833333333333</v>
+      </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+        <v>5.6944444444444464E-2</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.91111111111111109</v>
+      </c>
       <c r="D33" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+        <v>3.4027777777777768E-2</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>45381</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.54722222222222228</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.57638888888888884</v>
+      </c>
       <c r="D34" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+        <v>2.9166666666666563E-2</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>45381</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.9243055555555556</v>
+      </c>
       <c r="D35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="11"/>
+        <f>(C35-B35)</f>
+        <v>3.8888888888888973E-2</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
@@ -2853,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -2897,14 +3119,16 @@
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
@@ -2954,7 +3178,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
@@ -2966,32 +3190,82 @@
       </c>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="23" t="s">
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="7" t="str">
-        <f>TEXT(SUM(D9:D48), "d:h:mm")</f>
-        <v>0:11:34</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="7" t="str">
+        <f>TEXT(SUM(D9:D53), "d:h:mm")</f>
+        <v>0:19:50</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
@@ -3014,10 +3288,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3406,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" ref="D10:D46" si="0">(C10-B10)</f>
+        <f t="shared" ref="D10:D48" si="0">(C10-B10)</f>
         <v>0.125</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -3318,76 +3592,124 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="14">
+        <v>45378</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="14">
+        <v>45379</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.6875</v>
+      </c>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="18" t="s">
+      <c r="A29" s="14">
+        <v>45381</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" ref="D29:D30" si="1">(C29-B29)</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>45382</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
@@ -3410,16 +3732,14 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>10</v>
-      </c>
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
@@ -3432,14 +3752,16 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="11"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
@@ -3469,7 +3791,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
@@ -3489,7 +3811,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
@@ -3531,32 +3853,52 @@
       </c>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="23" t="s">
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="7" t="str">
-        <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:15:00</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="7" t="str">
+        <f>TEXT(SUM(D9:D48), "d:h:mm")</f>
+        <v>1:2:30</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
@@ -3581,8 +3923,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3874,15 +4216,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>45378</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
@@ -4106,7 +4456,7 @@
       <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:5:30</v>
+        <v>0:8:30</v>
       </c>
       <c r="E47" s="3"/>
     </row>

--- a/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
+++ b/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d037e0306ecfb5d/Desktop/repos_cloned_here_laptop/silver-goggles/Time Tracking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\never\Documents\ReposClonedHere\silver-goggles\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="8_{40B25DE9-E00C-4BC7-AF93-526C168704D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{241618D5-D7EC-4744-ADAD-87F5D6F678F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D013A32-E632-4110-B349-A06D28B628DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="-15030" windowWidth="18570" windowHeight="13980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="-15690" windowWidth="13185" windowHeight="13980" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member One" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Member Five'!$A$1:$E$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Member Four'!$A$1:$E$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Member One'!$A$1:$E$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Member Three'!$A$1:$E$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Member Three'!$A$1:$E$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Member Two'!$A$1:$E$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -316,6 +316,100 @@
   </si>
   <si>
     <t>I've created the Software Design Description document, which includes the system overview, system architecture, data dictionary, human interface design, and requirements matrix. I have also created a database schema. Six tables make up the database schema. This includes, Reports, Equipment, EquipmentCheckout, Inventory, MaintenanceActivities, and User Authentication and Access Control. .</t>
+  </si>
+  <si>
+    <t>Initial meeting, assignments, questions, etc</t>
+  </si>
+  <si>
+    <t>Final weeks meeting, confirming assignments, dues, questions</t>
+  </si>
+  <si>
+    <t>Confirm DB constraints, build file, creating initial DB or group distribution</t>
+  </si>
+  <si>
+    <t>Assist with app programming, employee tab</t>
+  </si>
+  <si>
+    <t>Assist with app programming, employee tab + reports tab</t>
+  </si>
+  <si>
+    <t>Assist with app programming, reports tab + Inventory tab</t>
+  </si>
+  <si>
+    <t>Assist with app programming, Inventory tab</t>
+  </si>
+  <si>
+    <t>Going over remainder of what to do, confirming assignments and merging branches</t>
+  </si>
+  <si>
+    <t>Began work to connect database to program, started coding method PullEmployees from the Employee class.</t>
+  </si>
+  <si>
+    <t>Continued work on connecting database to program and coding methods in Employee Class. Met with Team Lead to coordinate tasks and complete work on PullEmployees method.</t>
+  </si>
+  <si>
+    <t>Status Update Meeting – Met with team lead to discuss progress, cooperated together to make progress in coding with team lead and Ronda.</t>
+  </si>
+  <si>
+    <t>Altered MainPage to allow report and employee lists to load in upon start.</t>
+  </si>
+  <si>
+    <t>Began work to show report details in box upon selection, completed ViewInventory() and connected to Inventory screen</t>
+  </si>
+  <si>
+    <t>Meeting with team lead for code review, progress made on equipment tab’s CheckOut() function.</t>
+  </si>
+  <si>
+    <t>Focused on equipment tab – completed view details method, updated GUI.</t>
+  </si>
+  <si>
+    <t>Completed CheckOut functionality, began work on CheckIn</t>
+  </si>
+  <si>
+    <t>Tested functionality of maintenance tab, populated Location options in CheckInScreen.</t>
+  </si>
+  <si>
+    <t>Added functionality to check in search by UserID button, completed functionality of check in feature.</t>
+  </si>
+  <si>
+    <t>Bug fixes on check in feature.</t>
+  </si>
+  <si>
+    <t>Began process of implementing limited access for users based on roles.</t>
+  </si>
+  <si>
+    <t>4/4-5/2024</t>
+  </si>
+  <si>
+    <t>4/5-6/2024</t>
+  </si>
+  <si>
+    <t>Updated the inventory database as instructed</t>
+  </si>
+  <si>
+    <t>Team meeting.
+Watched videos to brush up on java 
+Started to develop the code for the equipment class in our project</t>
+  </si>
+  <si>
+    <t>Watched more videos to better understand java
+Developed more of the code for the equipment class in our project</t>
+  </si>
+  <si>
+    <t>Updated equipment class code as instructed to include database connection.
+Updated timesheet.</t>
+  </si>
+  <si>
+    <t>Updated equipment class code as instructed</t>
+  </si>
+  <si>
+    <t>In order to fully comprehend the functions of the system, I performed an extensive analysis of both the Java code and the SRS document. I was able to determine the system's primary functionalities, including personnel administration, equipment management, and user authentication, based on this study. I then created thorough test cases that included expected results, test methods, success criteria, and alignment with SRS specifications. I arranged the test cases using the IEEE Standard 829 framework.</t>
+  </si>
+  <si>
+    <t>Updated the Dynamic View</t>
+  </si>
+  <si>
+    <t>Updated the class diagram to reflect project changes</t>
   </si>
 </sst>
 </file>
@@ -409,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -798,11 +892,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -924,6 +1027,15 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,10 +1051,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,10 +1343,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1689,44 +1797,76 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="14">
+        <v>45383</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D31" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="14">
+        <v>45385</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>45387</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D33" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="D34" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="11"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -1741,94 +1881,166 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="14">
+        <v>45386</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D36" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D37" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>45390</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D38" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="14">
+        <v>45391</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D39" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="11"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="14">
+        <v>45392</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="18"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="14">
+        <v>45393</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D41" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="11"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="A42" s="14">
+        <v>45394</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D42" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>45395</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D43" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>45396</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.9375</v>
+      </c>
       <c r="D44" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="11"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
@@ -1860,7 +2072,7 @@
       </c>
       <c r="E47" s="12"/>
     </row>
-    <row r="48" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" s="5" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>4</v>
       </c>
@@ -1868,11 +2080,24 @@
       <c r="C48" s="24"/>
       <c r="D48" s="7" t="str">
         <f>TEXT(SUM(D9:D47), "d:h:mm")</f>
-        <v>0:22:45</v>
+        <v>2:3:15</v>
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:5" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A48:C48"/>
@@ -1900,8 +2125,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2309,44 +2534,74 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
       <c r="D30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
       <c r="D31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>45389</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="D33" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="11"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
@@ -2361,54 +2616,92 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="14">
+        <v>45390</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
       <c r="D35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="11"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="14">
+        <v>45391</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D36" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="14">
+        <v>45392</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
       <c r="D37" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="11"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="14">
+        <v>45393</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13">
+        <v>6.25E-2</v>
+      </c>
       <c r="D38" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="14">
+        <v>45397</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D39" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="18"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
@@ -2488,7 +2781,7 @@
       <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>1:1:39</v>
+        <v>1:22:44</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -2518,10 +2811,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2653,7 +2946,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" ref="D11:D53" si="0">(C11-B11)</f>
+        <f t="shared" ref="D11:D57" si="0">(C11-B11)</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3078,194 +3371,390 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>45379</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.89375000000000004</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.9145833333333333</v>
+      </c>
       <c r="D37" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>45379</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.95347222222222228</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.9770833333333333</v>
+      </c>
       <c r="D38" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+        <v>2.3611111111111027E-2</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.69374999999999998</v>
+      </c>
       <c r="D39" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.7895833333333333</v>
+      </c>
       <c r="D40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="18" t="s">
+        <v>5.6944444444444464E-2</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="0"/>
+        <v>3.4027777777777768E-2</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>45381</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.54722222222222228</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666563E-2</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>45354</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" si="0"/>
+        <v>3.8888888888888973E-2</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>45384</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.6791666666666667</v>
+      </c>
       <c r="D45" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>45386</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="D46" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>45387</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.88194444444444442</v>
+      </c>
+      <c r="C47" s="13">
+        <v>5.347222222222222E-2</v>
+      </c>
       <c r="D47" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+        <v>0.17152777777777778</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.80555555555555558</v>
+      </c>
       <c r="D48" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+        <v>1.5972222222222276E-2</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.96805555555555556</v>
+      </c>
       <c r="D49" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>45392</v>
+      </c>
+      <c r="B50" s="13">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.1</v>
+      </c>
       <c r="D50" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>45393</v>
+      </c>
+      <c r="B51" s="13">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.21319444444444444</v>
+      </c>
       <c r="D51" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+        <v>0.1534722222222222</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>45393</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.9375</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0.1701388888888889</v>
+      </c>
       <c r="D52" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+        <v>0.2326388888888889</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>45394</v>
+      </c>
+      <c r="B53" s="13">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.43541666666666667</v>
+      </c>
       <c r="D53" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="23" t="s">
+        <v>9.8611111111111094E-2</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>45394</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="C54" s="13">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D54" s="16">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>45396</v>
+      </c>
+      <c r="B55" s="13">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="D55" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11180555555555555</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="5" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
+        <v>45396</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="D56" s="16">
+        <f t="shared" si="0"/>
+        <v>6.0416666666666674E-2</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="5" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="43">
+        <v>45397</v>
+      </c>
+      <c r="B57" s="44">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="C57" s="44">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D57" s="16">
+        <f t="shared" si="0"/>
+        <v>8.8194444444444464E-2</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="7" t="str">
-        <f>TEXT(SUM(D9:D53), "d:h:mm")</f>
-        <v>0:19:50</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="7" t="str">
+        <f>TEXT(SUM(D9:D56), "d:h:mm")</f>
+        <v>2:23:47</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A58:C58"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E3"/>
@@ -3290,7 +3779,7 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -3923,8 +4412,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4276,15 +4765,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="138" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>45387</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="D30" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -4456,7 +4953,7 @@
       <c r="C47" s="24"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:8:30</v>
+        <v>0:10:00</v>
       </c>
       <c r="E47" s="3"/>
     </row>

--- a/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
+++ b/Time Tracking/CEIS400-MainTimeSheet-GroupC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\never\Documents\ReposClonedHere\silver-goggles\Time Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D013A32-E632-4110-B349-A06D28B628DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823D9A64-F7EF-43A9-B944-7F9E5477EA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="-15690" windowWidth="13185" windowHeight="13980" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="-15690" windowWidth="13185" windowHeight="13980" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member One" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -410,6 +410,36 @@
   </si>
   <si>
     <t>Updated the class diagram to reflect project changes</t>
+  </si>
+  <si>
+    <t>Gather final turn-in, collating paperwork, etc</t>
+  </si>
+  <si>
+    <t>Updated Test Case Document</t>
+  </si>
+  <si>
+    <t>Testing Code</t>
+  </si>
+  <si>
+    <t>Meeting and Working on User_Authentication</t>
+  </si>
+  <si>
+    <t>User_Authentication and testing code</t>
+  </si>
+  <si>
+    <t>Finishing User_authentication and testing code</t>
+  </si>
+  <si>
+    <t>Maintenance tab and Testing</t>
+  </si>
+  <si>
+    <t>New Log and testing</t>
+  </si>
+  <si>
+    <t>New Log and Testing</t>
+  </si>
+  <si>
+    <t>New Log and Clean up</t>
   </si>
 </sst>
 </file>
@@ -967,6 +997,15 @@
     <xf numFmtId="167" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,15 +1065,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,7 +1376,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1361,65 +1391,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -2043,14 +2073,22 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="14">
+        <v>45400</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.9375</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D45" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="11"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
@@ -2073,14 +2111,14 @@
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="7" t="str">
         <f>TEXT(SUM(D9:D47), "d:h:mm")</f>
-        <v>2:3:15</v>
+        <v>2:4:15</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -2125,7 +2163,7 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -2141,65 +2179,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -2774,11 +2812,11 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
         <v>1:22:44</v>
@@ -2813,7 +2851,7 @@
   </sheetPr>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A58" sqref="A58:C58"/>
     </sheetView>
   </sheetViews>
@@ -2829,65 +2867,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -3722,29 +3760,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="5" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="43">
+      <c r="A57" s="23">
         <v>45397</v>
       </c>
-      <c r="B57" s="44">
+      <c r="B57" s="24">
         <v>0.43958333333333333</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="24">
         <v>0.52777777777777779</v>
       </c>
       <c r="D57" s="16">
         <f t="shared" si="0"/>
         <v>8.8194444444444464E-2</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="7" t="str">
         <f>TEXT(SUM(D9:D56), "d:h:mm")</f>
         <v>2:23:47</v>
@@ -3779,8 +3817,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3795,65 +3833,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -4253,94 +4291,165 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="14">
+        <v>45384</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D37" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="11"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="38" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="14">
+        <v>45385</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D38" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="14">
+        <v>45388</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.5625</v>
+      </c>
       <c r="D39" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="11"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="14">
+        <v>45389</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D40" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="11"/>
+        <v>0.12499999999999994</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="14">
+        <v>45389</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C41" s="13">
+        <v>3.125E-2</v>
+      </c>
       <c r="D41" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="18"/>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="A42" s="14">
+        <v>45390</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D42" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="43" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="14">
+        <v>45392</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D43" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="11"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="A44" s="14">
+        <v>45394</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D44" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="11"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="45" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="14">
+        <v>45395</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D45" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="11"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="46" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
@@ -4373,14 +4482,14 @@
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="7" t="str">
         <f>TEXT(SUM(D9:D48), "d:h:mm")</f>
-        <v>1:2:30</v>
+        <v>2:10:45</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -4412,8 +4521,8 @@
   </sheetPr>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4428,65 +4537,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -4826,14 +4935,22 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="14">
+        <v>45393</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.75</v>
+      </c>
       <c r="D35" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="11"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
@@ -4946,14 +5063,14 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="7" t="str">
         <f>TEXT(SUM(D9:D46), "d:h:mm")</f>
-        <v>0:10:00</v>
+        <v>0:11:00</v>
       </c>
       <c r="E47" s="3"/>
     </row>
